--- a/tests/Scenariusz testowy SODiR.xlsx
+++ b/tests/Scenariusz testowy SODiR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adammarszowski/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adammarszowski/IdeaProjects/ScenarioAI/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AD8B07-030F-F640-A8BC-0F6AF45EFD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDA3E47-3EAD-D14F-8166-E048E3FB69EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15700" yWindow="-17760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Krok testowy</t>
   </si>
@@ -37,15 +37,6 @@
     <t>Przejdź do wiadomości otrzymanych</t>
   </si>
   <si>
-    <t>Odśwież listę wiadomości</t>
-  </si>
-  <si>
-    <t>Wybierz wiadomość testową i wejdź w szczegóły</t>
-  </si>
-  <si>
-    <t>Pobierz załącznik</t>
-  </si>
-  <si>
     <t>Użytkownik ma możliwość zalogowania się</t>
   </si>
   <si>
@@ -55,13 +46,16 @@
     <t>Otwarta jest strona wiadomości otrzymanych</t>
   </si>
   <si>
-    <t>Wyświetlona jest lista wiadomości otrzymanych</t>
-  </si>
-  <si>
     <t>Wyświetlone są szczegóły wiadomości</t>
   </si>
   <si>
-    <t>Został pobrany załącznik</t>
+    <t>Odznacz pole dotyczące nowych wiadomości i odśwież listę wiadomości</t>
+  </si>
+  <si>
+    <t>Wyświetlona jest lista wszystkich wiadomości otrzymanych</t>
+  </si>
+  <si>
+    <t>Wybierz wiadomość dotyczącą testu i wejdź w szczegóły</t>
   </si>
 </sst>
 </file>
@@ -429,16 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="1" max="1" width="54.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -454,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -462,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -470,31 +464,23 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
